--- a/data/income_statement/2digits/size/86_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/86_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>86-Human health activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>86-Human health activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1109 +841,1254 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2416613.84898</v>
+        <v>2444473.014549999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2369995.38421</v>
+        <v>2468238.69165</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2580628.94888</v>
+        <v>2667853.58965</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2666447.54767</v>
+        <v>2728257.52548</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3072329.0845</v>
+        <v>3114597.27731</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3369589.00348</v>
+        <v>3405056.74053</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3512478.18746</v>
+        <v>3656287.91944</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3668317.75856</v>
+        <v>3777035.40642</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4026660.07048</v>
+        <v>4135047.76976</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4888898.71842</v>
+        <v>4817274.040569999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6039667.86858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5895144.266600001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6267734.372</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2341751.67311</v>
+        <v>2370951.64319</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2302455.48667</v>
+        <v>2394616.19928</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2508604.72444</v>
+        <v>2591050.94232</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2598332.8375</v>
+        <v>2653594.98427</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2961882.23517</v>
+        <v>3005573.94169</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3264516.53059</v>
+        <v>3302013.93275</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3394774.40963</v>
+        <v>3520051.50199</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3533068.19575</v>
+        <v>3620244.69169</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3865457.89809</v>
+        <v>3952067.10804</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4636364.49905</v>
+        <v>4556356.63317</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5678148.79991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5523228.29053</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5862426.612</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>23657.44813</v>
+        <v>23763.84886</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>23443.8121</v>
+        <v>27487.55656</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>12762.34106</v>
+        <v>12242.53517</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>22691.94419</v>
+        <v>21816.05824</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>56374.04222</v>
+        <v>52285.11495</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>43052.7044</v>
+        <v>45353.04252</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>45203.60415000001</v>
+        <v>50708.38321</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>30735.14046</v>
+        <v>30545.04924</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>56814.68499999999</v>
+        <v>52396.33318</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>127216.6378</v>
+        <v>147592.899</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>192283.47724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>192830.78795</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>232596.563</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>51204.72774</v>
+        <v>49757.5225</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>44096.08544</v>
+        <v>46134.93581</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>59261.88338</v>
+        <v>64560.11216</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>45422.76598</v>
+        <v>52846.48297</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>54072.80711</v>
+        <v>56738.22067</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>62019.76848999999</v>
+        <v>57689.76526000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>72500.17368000001</v>
+        <v>85528.03423999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>104514.42235</v>
+        <v>126245.66549</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>104387.48739</v>
+        <v>130584.32854</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>125317.58157</v>
+        <v>113324.5084</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>169235.59143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>179085.18812</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>172711.197</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>20276.56787</v>
+        <v>20401.63859</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>16275.56383</v>
+        <v>17495.7503</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>13518.08637</v>
+        <v>14468.62272</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>15488.91092</v>
+        <v>14282.75943</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>14796.03122</v>
+        <v>13960.35936</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>15991.82261</v>
+        <v>18856.06202</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>13271.49085</v>
+        <v>13266.08979</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12869.21228</v>
+        <v>23556.72155</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11117.7927</v>
+        <v>12572.60277</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>24995.61596</v>
+        <v>22774.74686</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>34801.26207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>35148.60972</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>82163.428</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12397.47983</v>
+        <v>12509.38437</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9027.019340000001</v>
+        <v>10007.10316</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9369.96679</v>
+        <v>10433.27738</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>10433.99557</v>
+        <v>10282.08596</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10747.31916</v>
+        <v>10572.42612</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11262.28554</v>
+        <v>14654.00768</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7979.155379999999</v>
+        <v>7785.53301</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>7904.41983</v>
+        <v>18567.86429</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>8360.452539999998</v>
+        <v>9764.560239999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>19507.75089</v>
+        <v>17630.09155</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>24965.21118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>25404.56179</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>67398.273</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>3816.43223</v>
+        <v>3816.24401</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5984.005740000001</v>
+        <v>6213.883339999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2849.22919</v>
+        <v>2780.15863</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2962.89045</v>
+        <v>2583.14012</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3271.64931</v>
+        <v>2543.37759</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2811.08262</v>
+        <v>2281.12853</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3550.755900000001</v>
+        <v>3441.4055</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3116.08674</v>
+        <v>3142.0146</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>669.9190500000001</v>
+        <v>2176.10225</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2929.46691</v>
+        <v>2604.21839</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7032.737690000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6940.79795</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10287.558</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>4062.65581</v>
+        <v>4076.01021</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1264.53875</v>
+        <v>1274.7638</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1298.89039</v>
+        <v>1255.18671</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2092.0249</v>
+        <v>1417.53335</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>777.0627500000001</v>
+        <v>844.55565</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1918.45445</v>
+        <v>1920.92581</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1741.57957</v>
+        <v>2039.15128</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1848.70571</v>
+        <v>1846.84266</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2087.42111</v>
+        <v>631.94028</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2558.39816</v>
+        <v>2540.43692</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2803.3132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2803.24998</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4477.597</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2396337.28111</v>
+        <v>2424071.37596</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2353719.82038</v>
+        <v>2450742.94135</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2567110.86251</v>
+        <v>2653384.96693</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2650958.63675</v>
+        <v>2713974.76605</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3057533.05328</v>
+        <v>3100636.91795</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3353597.18087</v>
+        <v>3386200.67851</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3499206.69661</v>
+        <v>3643021.82965</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3655448.54628</v>
+        <v>3753478.68487</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4015542.27778</v>
+        <v>4122475.16699</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4863903.10246</v>
+        <v>4794499.29371</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6004866.60651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5859995.656879999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6185570.944</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1573757.74411</v>
+        <v>1622894.36268</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1555802.36576</v>
+        <v>1664727.46905</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1713313.80004</v>
+        <v>1797301.73796</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1756382.68003</v>
+        <v>1812776.0814</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2040272.10938</v>
+        <v>2117236.12719</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2268814.6303</v>
+        <v>2374548.70427</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2315493.81579</v>
+        <v>2487327.36576</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2440947.74902</v>
+        <v>2539312.42964</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2636032.73151</v>
+        <v>2745456.05211</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3381017.179169999</v>
+        <v>3390250.38782</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4299630.813899999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4265268.44775</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4388932.558</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>16658.26799</v>
+        <v>16369.86079</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>21444.03339</v>
+        <v>22217.52274</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>31921.28256</v>
+        <v>34001.3501</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>34641.9084</v>
+        <v>32262.66546</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>37002.20824</v>
+        <v>38949.34239</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>32995.53679999999</v>
+        <v>33903.42193</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>36770.59834</v>
+        <v>37974.17078</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>38872.38941</v>
+        <v>35837.45218</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>64966.04987</v>
+        <v>68206.00077</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>90475.7987</v>
+        <v>88813.09730999998</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>146106.7982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>141753.21382</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>148118.439</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>147220.71701</v>
+        <v>145132.72521</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>130308.16304</v>
+        <v>143728.18294</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>148226.21646</v>
+        <v>144909.35118</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>136498.88325</v>
+        <v>132532.18914</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>147106.60355</v>
+        <v>154359.95114</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>132862.37322</v>
+        <v>131788.04112</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>164897.91594</v>
+        <v>174068.01884</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>184774.24975</v>
+        <v>177317.89469</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>238404.0195</v>
+        <v>239591.98306</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>346211.42716</v>
+        <v>340812.48207</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>506318.1618999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>508083.26482</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>565677.191</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1407139.14101</v>
+        <v>1459185.98906</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1398320.17804</v>
+        <v>1493322.28083</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1528587.84048</v>
+        <v>1615863.18599</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1580863.0757</v>
+        <v>1642855.74286</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1852029.69294</v>
+        <v>1920009.71783</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2078222.38544</v>
+        <v>2184943.52858</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2095083.03644</v>
+        <v>2255136.0208</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2202952.55001</v>
+        <v>2310002.00307</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2311730.55555</v>
+        <v>2418995.82858</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2931226.82951</v>
+        <v>2950820.00392</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3630242.63422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3598994.19532</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3650930.295</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2739.6181</v>
+        <v>2205.78762</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5729.991290000001</v>
+        <v>5459.48254</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>4578.46054</v>
+        <v>2527.85069</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4378.81268</v>
+        <v>5125.48394</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4133.60465</v>
+        <v>3917.11583</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>24734.33484</v>
+        <v>23913.71264</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18742.26507</v>
+        <v>20149.15534</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>14348.55985</v>
+        <v>16155.0797</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>20932.10659</v>
+        <v>18662.2397</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>13103.1238</v>
+        <v>9804.80452</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>16963.21958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16437.77379</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>24206.633</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>822579.537</v>
+        <v>801177.01328</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>797917.45462</v>
+        <v>786015.4722999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>853797.06247</v>
+        <v>856083.2289699999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>894575.95672</v>
+        <v>901198.68465</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1017260.9439</v>
+        <v>983400.7907600001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1084782.55057</v>
+        <v>1011651.97424</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1183712.88082</v>
+        <v>1155694.46389</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1214500.79726</v>
+        <v>1214166.25523</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1379509.54627</v>
+        <v>1377019.11488</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1482885.92329</v>
+        <v>1404248.90589</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1705235.79261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1594727.20913</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1796638.386</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>508781.05209</v>
+        <v>509317.95884</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>502550.64821</v>
+        <v>516273.05048</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>562385.04209</v>
+        <v>567425.44223</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>568152.2067100001</v>
+        <v>565360.5722800001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>657389.39644</v>
+        <v>636288.21685</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>712486.55399</v>
+        <v>689447.37212</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>752453.9837099999</v>
+        <v>752614.34439</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>806614.6348</v>
+        <v>808412.4750399999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>903881.29452</v>
+        <v>896379.64703</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>988900.50989</v>
+        <v>943487.36428</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1137130.40911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1102634.94041</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1086407.715</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1745.35689</v>
+        <v>1737.37406</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>176.92405</v>
+        <v>148.30645</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1155.55833</v>
+        <v>951.9976299999998</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1758.20666</v>
+        <v>1251.38762</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1072.28087</v>
+        <v>775.20389</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>465.93187</v>
+        <v>347.2521</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>704.1595800000001</v>
+        <v>836.6347900000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1171.47931</v>
+        <v>1170.20156</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>717.4840800000001</v>
+        <v>764.9577399999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1703.26711</v>
+        <v>1626.02413</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5212.603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5198.28464</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>7206.641</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>41197.00132</v>
+        <v>40638.18323</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>37863.71840999999</v>
+        <v>37640.07984</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>49779.17747</v>
+        <v>49413.18311</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>48505.55145</v>
+        <v>48754.75708</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>59245.64247000001</v>
+        <v>58319.78792</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>63564.6181</v>
+        <v>61958.97473</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>70728.69964000001</v>
+        <v>73116.67908</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>78728.9724</v>
+        <v>78353.69441</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>96822.26146000001</v>
+        <v>102058.54262</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>116687.1257</v>
+        <v>113570.91837</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>141105.33738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>140807.69339</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>134225.627</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>465838.69388</v>
+        <v>466942.4015500001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>464510.00575</v>
+        <v>478484.66419</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>511450.30629</v>
+        <v>517060.2614900001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>517888.4486</v>
+        <v>515354.42758</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>597071.4731000001</v>
+        <v>577193.22504</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>648456.00402</v>
+        <v>627141.1452900001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>681021.12449</v>
+        <v>678661.0305200001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>726714.1830900001</v>
+        <v>728888.57907</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>806341.5489799998</v>
+        <v>793556.14667</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>870510.11708</v>
+        <v>828290.4217800001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>990812.46873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>956628.9623800002</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>944975.447</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>313798.4849099999</v>
+        <v>291859.05444</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>295366.80641</v>
+        <v>269742.42182</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>291412.02038</v>
+        <v>288657.78674</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>326423.75001</v>
+        <v>335838.11237</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>359871.54746</v>
+        <v>347112.57391</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>372295.99658</v>
+        <v>322204.60212</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>431258.89711</v>
+        <v>403080.1195</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>407886.16246</v>
+        <v>405753.78019</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>475628.25175</v>
+        <v>480639.46785</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>493985.4134</v>
+        <v>460761.54161</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>568105.3835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>492092.26872</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>710230.671</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>31559.41273</v>
+        <v>36332.89521</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>32994.59759</v>
+        <v>44370.77907</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>36866.56681</v>
+        <v>56504.59179999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>37792.67755</v>
+        <v>46916.73997</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>58122.52652</v>
+        <v>53220.02842</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>60915.28988</v>
+        <v>60472.07562999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>81300.08577999999</v>
+        <v>100650.23739</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>89617.29241999998</v>
+        <v>126843.36223</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>76352.94442</v>
+        <v>122213.23845</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>218102.63248</v>
+        <v>203760.21859</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>177426.71184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>161041.49949</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>204897.312</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2394.03246</v>
+        <v>1272.77099</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4209.409259999999</v>
+        <v>5888.03038</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2869.09945</v>
+        <v>4859.700390000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5114.06333</v>
+        <v>5077.928349999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4007.63653</v>
+        <v>4409.881729999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>9708.972019999999</v>
+        <v>6813.22991</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2639.3979</v>
+        <v>4068.86213</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3256.50004</v>
+        <v>5031.46976</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3795.007090000001</v>
+        <v>6517.387540000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>12792.39164</v>
+        <v>4524.406960000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>6928.79954</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1274.80536</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3098.042</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>309.18647</v>
+        <v>4611.821730000001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>821.4773400000001</v>
+        <v>2624.24181</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>251.74795</v>
+        <v>14442.55158</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1222.8225</v>
+        <v>2179.52433</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1308.44827</v>
+        <v>2380.80809</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>826.31503</v>
+        <v>2309.06798</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1115.31132</v>
+        <v>1247.79617</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4070.71809</v>
+        <v>1983.24062</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1427.31766</v>
+        <v>1608.37353</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>3238.29747</v>
+        <v>5705.41701</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2336.43674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2045.32975</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2692.046</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>10131.72747</v>
+        <v>10260.38809</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9326.645349999999</v>
+        <v>11496.30137</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>10168.17213</v>
+        <v>11290.81849</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>11316.75438</v>
+        <v>13030.10787</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>15063.35454</v>
+        <v>12998.23456</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15704.29783</v>
+        <v>17742.01119</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>18908.78943</v>
+        <v>24287.28861</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>18734.3657</v>
+        <v>28733.98017</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>24862.54149</v>
+        <v>32161.07203</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>45021.82467</v>
+        <v>30952.97608</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>52768.36928</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>39878.12674</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>34994.051</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>60.54158</v>
+        <v>176.97146</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>319.24479</v>
+        <v>389.5009700000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>364.44746</v>
+        <v>363.38792</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>288.38809</v>
+        <v>251.43771</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>148.75542</v>
+        <v>85.51138</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>69.1666</v>
+        <v>59.82041</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>229.70586</v>
+        <v>478.80471</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>189.25698</v>
+        <v>208.15498</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>158.32323</v>
+        <v>118.62753</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>31.16414</v>
+        <v>30.73889</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>165.64568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>164.37416</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>308.203</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>347.04204</v>
+        <v>353.26204</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>386.11248</v>
+        <v>352.48578</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>464.92842</v>
+        <v>474.80116</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>481.99602</v>
+        <v>332.99602</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>360.39233</v>
+        <v>576.31113</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>782.71838</v>
+        <v>584.23984</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1004.28194</v>
+        <v>1062.01972</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>192.40865</v>
+        <v>196.84609</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>289.50921</v>
+        <v>264.96171</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>909.58703</v>
+        <v>909.15228</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>869.78359</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1807.35</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>898.2617</v>
+        <v>776.43475</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>873.12881</v>
+        <v>888.4673</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1757.09592</v>
+        <v>1560.08509</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1121.51036</v>
+        <v>1604.71641</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1221.5521</v>
+        <v>4211.1483</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1606.73532</v>
+        <v>2039.43426</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1422.86446</v>
+        <v>2141.35941</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1977.34884</v>
+        <v>1840.87723</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1195.83632</v>
+        <v>2443.58985</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3507.81788</v>
+        <v>2924.3582</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8571.194130000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>16139.92995</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>11800.126</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>9917.31184</v>
+        <v>11152.01229</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>8822.35512</v>
+        <v>12216.01879</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>9117.59935</v>
+        <v>12745.54386</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4575.205910000001</v>
+        <v>10731.27558</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>12278.93794</v>
+        <v>13375.15613</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>13778.23953</v>
+        <v>18415.49363</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>26578.83491000001</v>
+        <v>48994.55367</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>22466.95006</v>
+        <v>47877.45824</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>22654.26231</v>
+        <v>57422.48007</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>113537.40498</v>
+        <v>127868.47734</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>59990.81961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>60964.40400999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>96873.98699999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>73.99649000000001</v>
+        <v>40.31096</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>43.09428</v>
@@ -2060,7 +2106,7 @@
         <v>159.16863</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>36.11876</v>
+        <v>26.19206</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0.9505399999999999</v>
@@ -2074,17 +2120,22 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>178.988</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>9.90883</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>82.80782999999998</v>
+        <v>346.97943</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0.00012</v>
@@ -2093,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1.37929</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>13.93301</v>
@@ -2105,271 +2156,306 @@
         <v>0.02222</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>59.31330999999999</v>
+        <v>59.2992</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>2.09124</v>
+        <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>8.898370000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>55.403</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7417.403850000001</v>
+        <v>7679.01407</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8110.32233</v>
+        <v>10125.65896</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>11825.06118</v>
+        <v>10719.28836</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>13638.91434</v>
+        <v>13675.73108</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>23539.0004</v>
+        <v>14989.9074</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>18265.74353</v>
+        <v>12335.67677</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>29355.80618</v>
+        <v>18334.38589</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>38728.7713</v>
+        <v>40970.36238</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>21910.8338</v>
+        <v>21617.44699</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>39061.98804</v>
+        <v>30844.62644</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>45786.7649</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>39695.84756</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>53089.116</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>22857.97876</v>
+        <v>24438.88861</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>17288.68009</v>
+        <v>21040.93701</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>28052.68624</v>
+        <v>42201.31122</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>17388.43829</v>
+        <v>20325.30326</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>23825.97216</v>
+        <v>35563.31012</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>29475.75247</v>
+        <v>38559.75192</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>35648.00665</v>
+        <v>86839.11899</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>32436.5683</v>
+        <v>117840.23106</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>33542.55463</v>
+        <v>97068.74460999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>135892.20962</v>
+        <v>196858.48998</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>77691.01093</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>83513.03585</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>126391.112</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2308.62062</v>
+        <v>2280.88909</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2178.95615</v>
+        <v>2421.77297</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1851.19502</v>
+        <v>1851.24293</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1801.14501</v>
+        <v>1941.75543</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2089.64489</v>
+        <v>1937.93709</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1919.51607</v>
+        <v>2044.12799</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2054.22779</v>
+        <v>1903.58328</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3636.136470000001</v>
+        <v>4933.79024</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2539.07754</v>
+        <v>2580.5429</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1968.01642</v>
+        <v>1868.21003</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3850.721829999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3370.09428</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3738.406</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4390.401220000001</v>
+        <v>4323.74234</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1763.00695</v>
+        <v>1774.7156</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1441.74287</v>
+        <v>1495.07945</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2161.00139</v>
+        <v>2139.20052</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3633.32639</v>
+        <v>3109.92411</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5249.550810000001</v>
+        <v>5143.77758</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5338.54549</v>
+        <v>5950.35283</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7795.85567</v>
+        <v>8072.52074</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3839.16876</v>
+        <v>4800.97191</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4757.51112</v>
+        <v>4537.62727</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>9848.872670000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>8207.71142</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2845.388</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>78.06231</v>
+        <v>77.42770999999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>218.19553</v>
+        <v>209.34796</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>269.4894</v>
+        <v>258.31006</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>324.74119</v>
+        <v>313.69914</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>737.8157000000001</v>
+        <v>1129.42341</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>206.66574</v>
+        <v>668.1491</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1388.07284</v>
+        <v>1757.37898</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>61.97892</v>
+        <v>180.38663</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2940.54111</v>
+        <v>225.23557</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>6910.3064</v>
+        <v>941.65191</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>932.048</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>908.74935</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2103.077</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11153.1512</v>
+        <v>12871.13578</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7853.900509999999</v>
+        <v>10208.57749</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>12522.41495</v>
+        <v>26337.19485</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5185.87385</v>
+        <v>7541.61991</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>13260.68182</v>
+        <v>24571.45519</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>11342.67749</v>
+        <v>21265.68744</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>19735.01029</v>
+        <v>69492.45697</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13348.12881</v>
+        <v>87579.71775</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>17316.47781</v>
+        <v>80677.99261000002</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>115193.18404</v>
+        <v>183457.43729</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>55466.60825</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>64779.82875</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>108115.884</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>96.74015</v>
+        <v>67.40306</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>203.23468</v>
+        <v>206.35254</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>61.20543</v>
+        <v>57.74117</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1.86894</v>
+        <v>3.99201</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0.006549999999999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0.00047</v>
+        <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2384,34 +2470,39 @@
         <v>16.34165</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>184.69652</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>175.22501</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1430.012</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>14.10211</v>
+        <v>14.14071</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>6.34307</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>11.86771</v>
+        <v>9.40757</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>25.35786</v>
+        <v>0.009470000000000001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0.04577000000000001</v>
+        <v>0.04585</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4816.901150000001</v>
+        <v>4804.14992</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5065.0432</v>
+        <v>6213.82738</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>11894.77086</v>
+        <v>12192.33519</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7888.450049999999</v>
+        <v>8385.02678</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4104.45104</v>
+        <v>4814.51792</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>10757.34189</v>
+        <v>9438.009810000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7132.150209999999</v>
+        <v>7735.34693</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>7593.040899999999</v>
+        <v>17072.38817</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6861.22718</v>
+        <v>8737.93939</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7046.849990000001</v>
+        <v>6037.22183</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>7408.06366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6071.42704</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8158.345</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>54269.38011</v>
+        <v>56728.65731</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>40453.05823</v>
+        <v>52743.07451000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>44008.27758</v>
+        <v>66648.8256</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>50314.01908</v>
+        <v>65756.567</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>52085.75424</v>
+        <v>63031.7375</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>63851.55734000001</v>
+        <v>107985.50615</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>75046.38537999999</v>
+        <v>123901.5847</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>77534.48240000001</v>
+        <v>133633.44677</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>82984.13897</v>
+        <v>131583.29409</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>143023.26189</v>
+        <v>163662.95861</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>152895.00554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>162802.9647</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>150235.861</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>51491.60341</v>
+        <v>53720.19239</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>39177.10772</v>
+        <v>51364.66696</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>42690.43417</v>
+        <v>63340.93464</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>48234.39282</v>
+        <v>62943.60516000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>49473.08425</v>
+        <v>59599.00246</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>60424.92809</v>
+        <v>104413.18919</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>71080.30914</v>
+        <v>113601.05565</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>73495.68468999999</v>
+        <v>115869.95931</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>78565.65358</v>
+        <v>111541.12069</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>130462.56976</v>
+        <v>153372.17162</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>139441.15209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>158755.81639</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>144484.339</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2777.7767</v>
+        <v>3008.46492</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1275.95051</v>
+        <v>1378.40755</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1317.84341</v>
+        <v>3307.89096</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2079.62626</v>
+        <v>2812.96184</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2612.66999</v>
+        <v>3432.73504</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3426.62925</v>
+        <v>3572.31696</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3966.07624</v>
+        <v>10300.52905</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>4038.79771</v>
+        <v>17763.48746</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4418.48539</v>
+        <v>20042.1734</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>12560.69213</v>
+        <v>10290.78699</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>13453.85345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4047.14831</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5751.522</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>268230.53877</v>
+        <v>247024.40373</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>270619.66568</v>
+        <v>240329.18937</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>256217.62337</v>
+        <v>236312.24172</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>296513.97019</v>
+        <v>296672.98208</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>342082.34758</v>
+        <v>301737.55471</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>339883.97665</v>
+        <v>236131.41968</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>401864.59086</v>
+        <v>292989.6532</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>387532.40418</v>
+        <v>281123.46459</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>435454.50257</v>
+        <v>374200.6676</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>433172.57437</v>
+        <v>304000.31161</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>514946.0788700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>406817.76766</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>638501.01</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15838.64178</v>
+        <v>15103.68114</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>17938.94439</v>
+        <v>23954.30871</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>30913.02848</v>
+        <v>27632.86759</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>29910.30247</v>
+        <v>31594.78808</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>52477.64953</v>
+        <v>35982.55022999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>46984.12312</v>
+        <v>37182.38058999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>43208.65171</v>
+        <v>54342.84117</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>98919.8841</v>
+        <v>99288.11157000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>54284.8526</v>
+        <v>79844.36989999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>87339.77750999999</v>
+        <v>190032.75811</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>96576.85637000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>75422.3698</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>76877.603</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>692.27645</v>
+        <v>814.07015</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>784.21998</v>
+        <v>791.8638100000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>271.9997</v>
+        <v>257.88136</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>480.3218699999999</v>
+        <v>406.5512199999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>455.49525</v>
+        <v>477.67026</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1456.4613</v>
+        <v>338.77035</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1229.81566</v>
+        <v>1078.94034</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>504.46832</v>
+        <v>471.78223</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>462.8091700000001</v>
+        <v>4188.7611</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>627.165</v>
+        <v>169.99182</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>859.85334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>729.4422</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4128.175</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15146.36533</v>
+        <v>14289.61099</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>17154.72441</v>
+        <v>23162.4449</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>30641.02878</v>
+        <v>27374.98623000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>29429.9806</v>
+        <v>31188.23686</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>52022.15428</v>
+        <v>35504.87997</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>45527.66182</v>
+        <v>36843.61024</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>41978.83605</v>
+        <v>53263.90083</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>98415.41578</v>
+        <v>98816.32934</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>53822.04343</v>
+        <v>75655.6088</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>86712.61250999999</v>
+        <v>189862.76629</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>95717.00303000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>74692.92760000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>72749.428</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>18994.55279</v>
+        <v>23018.20955</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>21193.38949</v>
+        <v>23569.69935</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>352391.75515</v>
+        <v>353160.42597</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>60920.40684</v>
+        <v>52334.05181</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>35994.87065</v>
+        <v>28026.45749</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>220561.85266</v>
+        <v>220411.71426</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>51462.48173</v>
+        <v>67732.20702000002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>270736.28871</v>
+        <v>305855.48688</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>46533.80303999999</v>
+        <v>47484.32447</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>236815.10633</v>
+        <v>186424.90192</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>91740.4764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>69898.13821</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>52207.139</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>148.64851</v>
+        <v>328.94985</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>412.14805</v>
+        <v>563.4017</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>516.32398</v>
+        <v>2233.4184</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>336.35759</v>
+        <v>320.30484</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2277.03282</v>
+        <v>1417.56798</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>8596.847330000001</v>
+        <v>12781.19482</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>10332.32592</v>
+        <v>9374.60032</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3664.18166</v>
+        <v>10448.37533</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1031.15861</v>
+        <v>3068.35576</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>512.75324</v>
+        <v>939.70574</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>54.41738</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1830.23746</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4658.126</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2493.54636</v>
+        <v>2478.26029</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1654.20043</v>
+        <v>1690.82492</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4225.47822</v>
+        <v>4372.67779</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1118.89766</v>
+        <v>600.42993</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1399.58972</v>
+        <v>1343.48555</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2317.02239</v>
+        <v>2533.22478</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3460.3686</v>
+        <v>2053.036</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1689.87144</v>
+        <v>4294.845139999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>782.6968900000001</v>
+        <v>756.00914</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2201.90849</v>
+        <v>1562.00207</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1269.62391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1168.80065</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1277.14</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>16352.35792</v>
+        <v>20210.99941</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>19127.04101</v>
+        <v>21315.47273</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>347649.95295</v>
+        <v>346554.32978</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>59465.15159</v>
+        <v>51413.31704</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>32318.24811</v>
+        <v>25265.40396</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>209647.98294</v>
+        <v>205097.29466</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>37669.78721</v>
+        <v>56304.5707</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>265382.23561</v>
+        <v>291112.26641</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>44719.94754</v>
+        <v>43659.95957</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>234100.4446</v>
+        <v>183923.19411</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>90416.43511000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>66899.1001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>46271.873</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>265074.62776</v>
+        <v>239109.87532</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>267365.22058</v>
+        <v>240713.79873</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-65261.1033</v>
+        <v>-89215.31666000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>265503.86582</v>
+        <v>275933.71835</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>358565.1264600001</v>
+        <v>309693.64745</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>166306.24711</v>
+        <v>52902.08601000002</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>393610.7608400001</v>
+        <v>279600.2873499999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>215715.99957</v>
+        <v>74556.08928</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>443205.5521300001</v>
+        <v>406560.71303</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>283697.24555</v>
+        <v>307608.1678</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>519782.45884</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>412341.99925</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>663171.474</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>57167.84236</v>
+        <v>53869.85944</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>57131.32836</v>
+        <v>54505.38869</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>57100.57171</v>
+        <v>55294.45214</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>62994.50863</v>
+        <v>61921.14784</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>77727.7904</v>
+        <v>70366.84705000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>76644.68616</v>
+        <v>73516.22872</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>87560.71909</v>
+        <v>81553.13398999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>90020.97369</v>
+        <v>82680.98651</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>97019.20266</v>
+        <v>92668.49117000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>112409.30062</v>
+        <v>95416.76477000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>136564.92296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>111624.02001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>146391.544</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>207906.7854</v>
+        <v>185240.01588</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>210233.89222</v>
+        <v>186208.41004</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-122361.67501</v>
+        <v>-144509.7688</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>202509.35719</v>
+        <v>214012.57051</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>280837.33606</v>
+        <v>239326.8004</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>89661.56095</v>
+        <v>-20614.14271000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>306050.04175</v>
+        <v>198047.15336</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>125695.02588</v>
+        <v>-8124.89723</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>346186.34947</v>
+        <v>313892.22186</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>171287.94493</v>
+        <v>212191.40303</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>383217.53588</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>300717.97924</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>516779.93</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1906</v>
+        <v>1677</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1933</v>
+        <v>1694</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1924</v>
+        <v>1696</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1969</v>
+        <v>1668</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2191</v>
+        <v>1733</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2303</v>
+        <v>1831</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2406</v>
+        <v>1886</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2446</v>
+        <v>1901</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2662</v>
+        <v>1979</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2002</v>
+        <v>1708</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1815</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>